--- a/SchedulingData/dynamic10/pso/scheduling1_3.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_3.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.59999999999999</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.1</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.5</v>
+        <v>75.84</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>53.8</v>
+        <v>120.66</v>
       </c>
       <c r="E4" t="n">
-        <v>25.32</v>
+        <v>22.704</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62.5</v>
+        <v>75.84</v>
       </c>
       <c r="D5" t="n">
-        <v>106.96</v>
+        <v>126.24</v>
       </c>
       <c r="E5" t="n">
-        <v>24.584</v>
+        <v>21.676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>106.96</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>163.16</v>
+        <v>61.42</v>
       </c>
       <c r="E6" t="n">
-        <v>20.104</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>54.24</v>
+        <v>91.2</v>
       </c>
       <c r="E7" t="n">
-        <v>26.776</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>61.42</v>
       </c>
       <c r="D8" t="n">
-        <v>114.12</v>
+        <v>116.92</v>
       </c>
       <c r="E8" t="n">
-        <v>22.408</v>
+        <v>23.088</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>120.66</v>
       </c>
       <c r="D9" t="n">
-        <v>59.66</v>
+        <v>178.26</v>
       </c>
       <c r="E9" t="n">
-        <v>26.204</v>
+        <v>18.084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59.66</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>113.46</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>23.444</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>126.24</v>
       </c>
       <c r="D11" t="n">
-        <v>68.44</v>
+        <v>192.5</v>
       </c>
       <c r="E11" t="n">
-        <v>27.296</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68.44</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>112.14</v>
+        <v>127.46</v>
       </c>
       <c r="E12" t="n">
-        <v>24.056</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>114.12</v>
+        <v>127.46</v>
       </c>
       <c r="D13" t="n">
-        <v>180.14</v>
+        <v>182.44</v>
       </c>
       <c r="E13" t="n">
-        <v>19.416</v>
+        <v>18.676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54.24</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>114.52</v>
+        <v>39.5</v>
       </c>
       <c r="E14" t="n">
-        <v>23.388</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="15">
@@ -713,74 +713,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>112.14</v>
+        <v>182.44</v>
       </c>
       <c r="D15" t="n">
-        <v>164.74</v>
+        <v>263.7</v>
       </c>
       <c r="E15" t="n">
-        <v>19.436</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>163.16</v>
+        <v>39.5</v>
       </c>
       <c r="D16" t="n">
-        <v>223.6</v>
+        <v>104.4</v>
       </c>
       <c r="E16" t="n">
-        <v>15.68</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>180.14</v>
+        <v>91.2</v>
       </c>
       <c r="D17" t="n">
-        <v>224.08</v>
+        <v>153.7</v>
       </c>
       <c r="E17" t="n">
-        <v>16.152</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>164.74</v>
+        <v>104.4</v>
       </c>
       <c r="D18" t="n">
-        <v>220.9</v>
+        <v>138.36</v>
       </c>
       <c r="E18" t="n">
-        <v>16.42</v>
+        <v>19.624</v>
       </c>
     </row>
     <row r="19">
@@ -789,117 +789,117 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>65.59999999999999</v>
+        <v>138.36</v>
       </c>
       <c r="D19" t="n">
-        <v>118.3</v>
+        <v>183.88</v>
       </c>
       <c r="E19" t="n">
-        <v>21.96</v>
+        <v>16.712</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>113.46</v>
+        <v>183.88</v>
       </c>
       <c r="D20" t="n">
-        <v>178.36</v>
+        <v>247.18</v>
       </c>
       <c r="E20" t="n">
-        <v>18.584</v>
+        <v>13.472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>118.3</v>
+        <v>192.5</v>
       </c>
       <c r="D21" t="n">
-        <v>198.6</v>
+        <v>239.7</v>
       </c>
       <c r="E21" t="n">
-        <v>18.04</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>198.6</v>
+        <v>116.92</v>
       </c>
       <c r="D22" t="n">
-        <v>245.06</v>
+        <v>204.52</v>
       </c>
       <c r="E22" t="n">
-        <v>15.024</v>
+        <v>18.408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>245.06</v>
+        <v>263.7</v>
       </c>
       <c r="D23" t="n">
-        <v>301.58</v>
+        <v>322.04</v>
       </c>
       <c r="E23" t="n">
-        <v>10.992</v>
+        <v>12.436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>223.6</v>
+        <v>204.52</v>
       </c>
       <c r="D24" t="n">
-        <v>281.1</v>
+        <v>277.36</v>
       </c>
       <c r="E24" t="n">
-        <v>11.06</v>
+        <v>15.704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -907,108 +907,108 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>220.9</v>
+        <v>247.18</v>
       </c>
       <c r="D25" t="n">
-        <v>256.4</v>
+        <v>297.48</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>11.052</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>114.52</v>
+        <v>178.26</v>
       </c>
       <c r="D26" t="n">
-        <v>168.28</v>
+        <v>227.72</v>
       </c>
       <c r="E26" t="n">
-        <v>20.632</v>
+        <v>15.268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>168.28</v>
+        <v>227.72</v>
       </c>
       <c r="D27" t="n">
-        <v>214.54</v>
+        <v>289.22</v>
       </c>
       <c r="E27" t="n">
-        <v>18.136</v>
+        <v>12.748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>301.58</v>
+        <v>153.7</v>
       </c>
       <c r="D28" t="n">
-        <v>351.34</v>
+        <v>201.3</v>
       </c>
       <c r="E28" t="n">
-        <v>8.135999999999999</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>214.54</v>
+        <v>239.7</v>
       </c>
       <c r="D29" t="n">
-        <v>265.74</v>
+        <v>295.86</v>
       </c>
       <c r="E29" t="n">
-        <v>15.616</v>
+        <v>13.564</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>224.08</v>
+        <v>201.3</v>
       </c>
       <c r="D30" t="n">
-        <v>271.58</v>
+        <v>255.86</v>
       </c>
       <c r="E30" t="n">
-        <v>13.032</v>
+        <v>14.924</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>265.74</v>
+        <v>255.86</v>
       </c>
       <c r="D31" t="n">
-        <v>346.6</v>
+        <v>307.12</v>
       </c>
       <c r="E31" t="n">
-        <v>12.6</v>
+        <v>11.908</v>
       </c>
     </row>
   </sheetData>
